--- a/1.doc/SQH数据字典.xlsx
+++ b/1.doc/SQH数据字典.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phimath\source\repos\sq_analysis\1.doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phimath\Source\Repos\sq_analysis\1.doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F27020-29A1-4533-AC3F-DE0A0FB2CA2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55558A-A1D7-47C4-B8E6-81AFDF8AD071}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{507BCEB9-BAF7-4F9D-B3A4-BB39655ABA7F}"/>
   </bookViews>
@@ -36,18 +36,12 @@
     <t>项目类型</t>
   </si>
   <si>
-    <t>FTAProject</t>
-  </si>
-  <si>
     <t>用户状态</t>
   </si>
   <si>
     <t>0 异常， 1 正常， 2 冻结</t>
   </si>
   <si>
-    <t>项目访问权限</t>
-  </si>
-  <si>
     <t>0无访问，1只读，2 更新</t>
   </si>
   <si>
@@ -61,6 +55,12 @@
   </si>
   <si>
     <t>http://137.135.112.26/Help/Api/POST-api-Projects-AddOrUpdateAccess</t>
+  </si>
+  <si>
+    <t>FTAProject,WorkProject,FMEAProject</t>
+  </si>
+  <si>
+    <t>项目访问权限privilege</t>
   </si>
 </sst>
 </file>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,7 +437,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -448,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -456,32 +456,32 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1.doc/SQH数据字典.xlsx
+++ b/1.doc/SQH数据字典.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phimath\Source\Repos\sq_analysis\1.doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B55558A-A1D7-47C4-B8E6-81AFDF8AD071}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77609972-4EBD-4A79-AD32-85F688D0F318}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{507BCEB9-BAF7-4F9D-B3A4-BB39655ABA7F}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
